--- a/Exhibitor_Data.xlsx
+++ b/Exhibitor_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\semicon\appV9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FB28B1-9898-4AA2-82B3-F67830C17FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1DC568D-4FC1-40F9-BEC4-99B5174E8E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,12 +478,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -513,11 +519,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,7 +830,7 @@
   <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:T38"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1447,62 +1454,62 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H11">
-        <v>91</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="2">
+        <v>91</v>
+      </c>
+      <c r="I11" s="2">
         <v>6292294940</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
+      <c r="K11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
         <v>1</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>2</v>
-      </c>
-      <c r="R11">
-        <v>4</v>
-      </c>
-      <c r="S11">
-        <v>50</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>4</v>
+      </c>
+      <c r="S11" s="2">
+        <v>50</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>28</v>
       </c>
     </row>
